--- a/dataset_ids_alivcor.xlsx
+++ b/dataset_ids_alivcor.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Action_4" sheetId="1" r:id="rId1"/>
@@ -34,310 +34,310 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
-    <t>https://play.google.com/store/apps/details?id=com.gameloft.android.ANMP.GloftM5HM</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.halfbrick.dantheman</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=jpark.AOS5</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.nekki.vector</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.turner.asmajormayhem</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.gameloft.android.ANMP.Gloft5DHM</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.nekki.shadowfight</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.zaibiminegamescraft.Modern.Action.commando.fps</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.gameloft.android.ANMP.GloftSIHM</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.robtopx.geometryjumplite</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.halfbrick.jetpackjoyride</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.halfbrick.fruitninjafree</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=zombie.survival.craft.z</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.ea.game.maddenmobile15_row</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.playappking.ametalsoldiers2</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.gameloft.android.ANMP.GloftGOHM</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.warnerbros.game300ROE</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.gameloft.android.ANMP.GloftFWHM</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.madfingergames.deadtrigger2</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.clapfootgames.vtt3dfree</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.outfit7.movingeye.swampattack</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.wb.goog.mkx</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.jumpgames.rswrb</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.gameloft.android.ANMP.GloftGGHM</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.kabam.bigrobot</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.glu.flcn_new</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.kabam.marvelbattle</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.gameloft.android.ANMP.GloftA3HM</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.topactiongames.survivor.prision.escape.v2</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=air.com.crescentmoongames.optical</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.gameinsight.gobandroid</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.sidheinteractive.sif.DR</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.dobsoftstudios.gunfustickman2</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.pixonic.wwr</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.wordsmobile.gunship</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.wordsmobile.zombieroadkill</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.dle.respawnables</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.yx.sniper</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.madfingergames.deadzone</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=me.dreamsky.leagueofstickman</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.tencent.ttxddny</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.gameloft.android.ANMP.GloftSXHM</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.fungames.sniper3d</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.julian.fastracing</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.actionlauncher.playstore</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.gameloft.android.ANMP.GloftZSHM</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.vng.g6.a.zombie</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.glu.contractkiller3</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=studio.turbo.work.contra</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.counter.terrorists.swat.attack</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.glu.t5</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.niya.games.aomst.fps05</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.funzio.crimecity</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.madfingergames.unkilled</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.miniclip.angerofstick2</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=jp.konami.pesam</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.squareenix.relicrun</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.glu.contractkiller2</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.glu.sniperx</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=de.mobilebits.soulcraftdefault</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.mrgames.larvaaction</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.ubisoft.assassin.pirates</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.nlabsoft.bw</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.newera.commando.in.action</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.twobeards.stealth</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.wb.goog.injustice</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.playappking.ametalsoldiers</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.rayark.implosion</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.madfingergames.deadtrigger</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.dgstudios.commandosarahactiongame</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.wb.goog.uncle.missionberlin</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.tribunegamesmobilestudios.modern.commando.action.fps.mission</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.wjp.zombie</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.dgstudios.commandosarah2actiongame</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.cyberlink.actiondirector</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.rockville.terrorist.shooter.fps</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.ggs.incredible.monster.hero.superprison.action</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.zaibiminegamescraft.agent.on.secret.mission</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.kronosgo.ActionBowling2</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.heroesofchaos.ggplay.koramgame.na</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.actgames.bbrr.sgp</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.motorola.actions</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=ru.Pragmatix.DeathTour</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.netmarble.mherosgb</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=air.jp.globalgear.kikai</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.coldfiregames.spaceclicker</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.sportsaction.action</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.wb.goog.jlar</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=sts.al</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.robtopx.geometryjump</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.hearst.android.wtae</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.mildmania.cattch</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.herogames.gplay.crisisactionna</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.sgs.military.action.war.stealth.apps</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=org.un.sdgsinaction.app</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.cmgdigital.android.wtevweather</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.mizo.transformer.shooting</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.xiaomi.xy.sportscamera</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.glu.deerhunt16</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=air.com.dpflashes.clearvision3</t>
-  </si>
-  <si>
     <t>https://play.google.com/store/apps/details?id=com.ketchapp.ninja</t>
   </si>
   <si>
     <t>https://play.google.com/store/apps/details?id=com.BJHFFJD8113261</t>
+  </si>
+  <si>
+    <t>com.gameloft.android.ANMP.GloftM5HM</t>
+  </si>
+  <si>
+    <t>com.halfbrick.dantheman</t>
+  </si>
+  <si>
+    <t>jpark.AOS5</t>
+  </si>
+  <si>
+    <t>com.nekki.vector</t>
+  </si>
+  <si>
+    <t>com.turner.asmajormayhem</t>
+  </si>
+  <si>
+    <t>com.gameloft.android.ANMP.Gloft5DHM</t>
+  </si>
+  <si>
+    <t>com.nekki.shadowfight</t>
+  </si>
+  <si>
+    <t>com.zaibiminegamescraft.Modern.Action.commando.fps</t>
+  </si>
+  <si>
+    <t>com.gameloft.android.ANMP.GloftSIHM</t>
+  </si>
+  <si>
+    <t>com.robtopx.geometryjumplite</t>
+  </si>
+  <si>
+    <t>com.halfbrick.jetpackjoyride</t>
+  </si>
+  <si>
+    <t>com.halfbrick.fruitninjafree</t>
+  </si>
+  <si>
+    <t>zombie.survival.craft.z</t>
+  </si>
+  <si>
+    <t>com.ea.game.maddenmobile15_row</t>
+  </si>
+  <si>
+    <t>com.playappking.ametalsoldiers2</t>
+  </si>
+  <si>
+    <t>com.gameloft.android.ANMP.GloftGOHM</t>
+  </si>
+  <si>
+    <t>com.warnerbros.game300ROE</t>
+  </si>
+  <si>
+    <t>com.gameloft.android.ANMP.GloftFWHM</t>
+  </si>
+  <si>
+    <t>com.madfingergames.deadtrigger2</t>
+  </si>
+  <si>
+    <t>com.clapfootgames.vtt3dfree</t>
+  </si>
+  <si>
+    <t>com.outfit7.movingeye.swampattack</t>
+  </si>
+  <si>
+    <t>com.wb.goog.mkx</t>
+  </si>
+  <si>
+    <t>com.jumpgames.rswrb</t>
+  </si>
+  <si>
+    <t>com.gameloft.android.ANMP.GloftGGHM</t>
+  </si>
+  <si>
+    <t>com.kabam.bigrobot</t>
+  </si>
+  <si>
+    <t>com.glu.flcn_new</t>
+  </si>
+  <si>
+    <t>com.kabam.marvelbattle</t>
+  </si>
+  <si>
+    <t>com.gameloft.android.ANMP.GloftA3HM</t>
+  </si>
+  <si>
+    <t>com.topactiongames.survivor.prision.escape.v2</t>
+  </si>
+  <si>
+    <t>air.com.crescentmoongames.optical</t>
+  </si>
+  <si>
+    <t>com.gameinsight.gobandroid</t>
+  </si>
+  <si>
+    <t>com.sidheinteractive.sif.DR</t>
+  </si>
+  <si>
+    <t>com.dobsoftstudios.gunfustickman2</t>
+  </si>
+  <si>
+    <t>com.pixonic.wwr</t>
+  </si>
+  <si>
+    <t>com.wordsmobile.gunship</t>
+  </si>
+  <si>
+    <t>com.wordsmobile.zombieroadkill</t>
+  </si>
+  <si>
+    <t>com.dle.respawnables</t>
+  </si>
+  <si>
+    <t>com.yx.sniper</t>
+  </si>
+  <si>
+    <t>com.madfingergames.deadzone</t>
+  </si>
+  <si>
+    <t>me.dreamsky.leagueofstickman</t>
+  </si>
+  <si>
+    <t>com.tencent.ttxddny</t>
+  </si>
+  <si>
+    <t>com.gameloft.android.ANMP.GloftSXHM</t>
+  </si>
+  <si>
+    <t>com.fungames.sniper3d</t>
+  </si>
+  <si>
+    <t>com.julian.fastracing</t>
+  </si>
+  <si>
+    <t>com.actionlauncher.playstore</t>
+  </si>
+  <si>
+    <t>com.gameloft.android.ANMP.GloftZSHM</t>
+  </si>
+  <si>
+    <t>com.vng.g6.a.zombie</t>
+  </si>
+  <si>
+    <t>com.glu.contractkiller3</t>
+  </si>
+  <si>
+    <t>studio.turbo.work.contra</t>
+  </si>
+  <si>
+    <t>com.counter.terrorists.swat.attack</t>
+  </si>
+  <si>
+    <t>com.glu.t5</t>
+  </si>
+  <si>
+    <t>com.niya.games.aomst.fps05</t>
+  </si>
+  <si>
+    <t>com.funzio.crimecity</t>
+  </si>
+  <si>
+    <t>com.madfingergames.unkilled</t>
+  </si>
+  <si>
+    <t>com.miniclip.angerofstick2</t>
+  </si>
+  <si>
+    <t>jp.konami.pesam</t>
+  </si>
+  <si>
+    <t>com.squareenix.relicrun</t>
+  </si>
+  <si>
+    <t>com.glu.contractkiller2</t>
+  </si>
+  <si>
+    <t>com.glu.sniperx</t>
+  </si>
+  <si>
+    <t>de.mobilebits.soulcraftdefault</t>
+  </si>
+  <si>
+    <t>com.mrgames.larvaaction</t>
+  </si>
+  <si>
+    <t>com.ubisoft.assassin.pirates</t>
+  </si>
+  <si>
+    <t>com.nlabsoft.bw</t>
+  </si>
+  <si>
+    <t>com.newera.commando.in.action</t>
+  </si>
+  <si>
+    <t>com.twobeards.stealth</t>
+  </si>
+  <si>
+    <t>com.wb.goog.injustice</t>
+  </si>
+  <si>
+    <t>com.playappking.ametalsoldiers</t>
+  </si>
+  <si>
+    <t>com.rayark.implosion</t>
+  </si>
+  <si>
+    <t>com.madfingergames.deadtrigger</t>
+  </si>
+  <si>
+    <t>com.dgstudios.commandosarahactiongame</t>
+  </si>
+  <si>
+    <t>com.wb.goog.uncle.missionberlin</t>
+  </si>
+  <si>
+    <t>com.tribunegamesmobilestudios.modern.commando.action.fps.mission</t>
+  </si>
+  <si>
+    <t>com.wjp.zombie</t>
+  </si>
+  <si>
+    <t>com.dgstudios.commandosarah2actiongame</t>
+  </si>
+  <si>
+    <t>com.cyberlink.actiondirector</t>
+  </si>
+  <si>
+    <t>com.rockville.terrorist.shooter.fps</t>
+  </si>
+  <si>
+    <t>com.ggs.incredible.monster.hero.superprison.action</t>
+  </si>
+  <si>
+    <t>com.zaibiminegamescraft.agent.on.secret.mission</t>
+  </si>
+  <si>
+    <t>com.kronosgo.ActionBowling2</t>
+  </si>
+  <si>
+    <t>com.heroesofchaos.ggplay.koramgame.na</t>
+  </si>
+  <si>
+    <t>com.actgames.bbrr.sgp</t>
+  </si>
+  <si>
+    <t>com.motorola.actions</t>
+  </si>
+  <si>
+    <t>ru.Pragmatix.DeathTour</t>
+  </si>
+  <si>
+    <t>com.netmarble.mherosgb</t>
+  </si>
+  <si>
+    <t>air.jp.globalgear.kikai</t>
+  </si>
+  <si>
+    <t>com.coldfiregames.spaceclicker</t>
+  </si>
+  <si>
+    <t>com.sportsaction.action</t>
+  </si>
+  <si>
+    <t>com.wb.goog.jlar</t>
+  </si>
+  <si>
+    <t>sts.al</t>
+  </si>
+  <si>
+    <t>com.robtopx.geometryjump</t>
+  </si>
+  <si>
+    <t>com.hearst.android.wtae</t>
+  </si>
+  <si>
+    <t>com.mildmania.cattch</t>
+  </si>
+  <si>
+    <t>com.herogames.gplay.crisisactionna</t>
+  </si>
+  <si>
+    <t>com.sgs.military.action.war.stealth.apps</t>
+  </si>
+  <si>
+    <t>org.un.sdgsinaction.app</t>
+  </si>
+  <si>
+    <t>com.cmgdigital.android.wtevweather</t>
+  </si>
+  <si>
+    <t>com.mizo.transformer.shooting</t>
+  </si>
+  <si>
+    <t>com.xiaomi.xy.sportscamera</t>
+  </si>
+  <si>
+    <t>com.glu.deerhunt16</t>
+  </si>
+  <si>
+    <t>air.com.dpflashes.clearvision3</t>
   </si>
 </sst>
 </file>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,502 +665,502 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1172,7 +1172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1183,12 +1183,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
